--- a/Book2026.xlsx
+++ b/Book2026.xlsx
@@ -1979,24 +1979,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="155986944"/>
-        <c:axId val="156017408"/>
+        <c:axId val="161169408"/>
+        <c:axId val="161170944"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="155986944"/>
+        <c:axId val="161169408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156017408"/>
+        <c:crossAx val="161170944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156017408"/>
+        <c:axId val="161170944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,7 +2004,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155986944"/>
+        <c:crossAx val="161169408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11185,7 +11185,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Book2026.xlsx
+++ b/Book2026.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="20"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="10" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="246">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -770,6 +770,15 @@
   </si>
   <si>
     <t>تحت حساب صيانة سنة 2025 بالكامل وسنة 2026، 2027 بالكامل بوقع 450 جنيه للشقتين، بمعنى 150جنيه لشقة 10 الغير مشغولة و 300جنيه لشقة 6 المشغولةـ، ملحوظة: لم يتم وضع مبلغ فى خانة استلام المبلغ لانه تم اثباته سنه 2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر يناير   /2026</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر ديسمبر /2025</t>
+  </si>
+  <si>
+    <t>د.عمرو</t>
   </si>
 </sst>
 </file>
@@ -1979,24 +1988,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="161169408"/>
-        <c:axId val="161170944"/>
+        <c:axId val="169856000"/>
+        <c:axId val="167916288"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="161169408"/>
+        <c:axId val="169856000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161170944"/>
+        <c:crossAx val="167916288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161170944"/>
+        <c:axId val="167916288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,7 +2013,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161169408"/>
+        <c:crossAx val="169856000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3747,7 +3756,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9208,7 +9217,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D17"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9266,7 +9275,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -9313,7 +9322,9 @@
       <c r="C6" s="84">
         <v>46073</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8">
+        <v>75</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="35">
         <v>75</v>
@@ -11185,7 +11196,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11279,7 +11290,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -11360,11 +11371,21 @@
       <c r="A7" s="52">
         <v>2</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="62"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="B7" s="58">
+        <v>46022</v>
+      </c>
+      <c r="C7" s="62">
+        <v>75</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="52">
+        <v>2</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>243</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -11380,12 +11401,22 @@
       <c r="A8" s="52">
         <v>3</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="58">
+        <v>46024</v>
+      </c>
+      <c r="C8" s="62">
+        <v>300</v>
+      </c>
       <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
+      <c r="E8" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="52">
+        <v>7</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>244</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -11401,12 +11432,22 @@
       <c r="A9" s="52">
         <v>4</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="58">
+        <v>46024</v>
+      </c>
+      <c r="C9" s="62">
+        <v>150</v>
+      </c>
       <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
+      <c r="E9" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="52">
+        <v>4</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>244</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -11422,11 +11463,21 @@
       <c r="A10" s="52">
         <v>5</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="62"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
+      <c r="B10" s="58">
+        <v>46024</v>
+      </c>
+      <c r="C10" s="62">
+        <v>150</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="52">
+        <v>3</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>244</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -14488,7 +14539,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -14496,7 +14547,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>13902</v>
+        <v>14577</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -21170,7 +21221,7 @@
       </c>
       <c r="D6" s="28">
         <f>Apartment2!D6</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E6" s="28">
         <f>Apartment3!D6</f>
@@ -22243,12 +22294,12 @@
       </c>
       <c r="C6" s="100">
         <f>Apartment2!D4</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D6" s="101"/>
       <c r="E6" s="103">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>51</v>

--- a/Book2026.xlsx
+++ b/Book2026.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="10" activeTab="20"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="10" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="247">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>د.عمرو</t>
+  </si>
+  <si>
+    <t>تحت حساب اصلاح كالون باب الخشب الرئيسى للعمارة وتريحه بحيث يقفل ويفتح الكالون من بره بسهولة</t>
   </si>
 </sst>
 </file>
@@ -1988,24 +1991,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="169856000"/>
-        <c:axId val="167916288"/>
+        <c:axId val="67885696"/>
+        <c:axId val="66072960"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="169856000"/>
+        <c:axId val="67885696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167916288"/>
+        <c:crossAx val="66072960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="167916288"/>
+        <c:axId val="66072960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,7 +2016,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169856000"/>
+        <c:crossAx val="67885696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11195,7 +11198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -14473,7 +14476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -14543,11 +14546,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>14577</v>
+        <v>14477</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -14906,7 +14909,7 @@
   <dimension ref="A2:T114"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D98"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14941,7 +14944,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -14971,9 +14974,15 @@
       <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="67">
+        <v>46023</v>
+      </c>
+      <c r="C5" s="62">
+        <v>100</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>246</v>
+      </c>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="51"/>

--- a/Book2026.xlsx
+++ b/Book2026.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="10" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="247">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1991,24 +1991,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67885696"/>
-        <c:axId val="66072960"/>
+        <c:axId val="185986048"/>
+        <c:axId val="185729792"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="67885696"/>
+        <c:axId val="185986048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66072960"/>
+        <c:crossAx val="185729792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66072960"/>
+        <c:axId val="185729792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,7 +2016,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67885696"/>
+        <c:crossAx val="185986048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11199,7 +11199,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11293,7 +11293,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>675</v>
+        <v>925</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -11496,11 +11496,21 @@
       <c r="A11" s="52">
         <v>6</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="62"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="B11" s="58">
+        <v>46026</v>
+      </c>
+      <c r="C11" s="62">
+        <v>250</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="52">
+        <v>12</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>222</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -14476,7 +14486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -14542,7 +14552,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>675</v>
+        <v>925</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -14550,7 +14560,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>14477</v>
+        <v>14727</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -21270,7 +21280,7 @@
       </c>
       <c r="N6" s="28">
         <f>Apartment12!D6</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="O6" s="28">
         <f>Apartment13!D6</f>
@@ -23498,8 +23508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23557,12 +23567,12 @@
       <c r="C4" s="83"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
         <f>SUM(F6:F2001)</f>
-        <v>3600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -23602,12 +23612,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="84">
-        <v>44961</v>
-      </c>
-      <c r="D6" s="35"/>
+        <v>46026</v>
+      </c>
+      <c r="D6" s="35">
+        <v>250</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="35">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G6" s="52" t="s">
         <v>219</v>
@@ -23626,13 +23638,11 @@
       <c r="B7" s="80">
         <v>2</v>
       </c>
-      <c r="C7" s="84">
-        <v>44961</v>
-      </c>
+      <c r="C7" s="84"/>
       <c r="D7" s="35"/>
       <c r="E7" s="8"/>
       <c r="F7" s="35">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>99</v>
@@ -23651,13 +23661,11 @@
       <c r="B8" s="80">
         <v>3</v>
       </c>
-      <c r="C8" s="84">
-        <v>44961</v>
-      </c>
+      <c r="C8" s="84"/>
       <c r="D8" s="35"/>
       <c r="E8" s="8"/>
       <c r="F8" s="35">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>100</v>
@@ -23676,13 +23684,11 @@
       <c r="B9" s="80">
         <v>4</v>
       </c>
-      <c r="C9" s="84">
-        <v>44995</v>
-      </c>
+      <c r="C9" s="84"/>
       <c r="D9" s="35"/>
       <c r="E9" s="8"/>
       <c r="F9" s="35">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>101</v>
@@ -23701,13 +23707,11 @@
       <c r="B10" s="80">
         <v>5</v>
       </c>
-      <c r="C10" s="84">
-        <v>44995</v>
-      </c>
+      <c r="C10" s="84"/>
       <c r="D10" s="35"/>
       <c r="E10" s="8"/>
       <c r="F10" s="35">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>102</v>
@@ -23726,13 +23730,11 @@
       <c r="B11" s="80">
         <v>6</v>
       </c>
-      <c r="C11" s="84">
-        <v>44995</v>
-      </c>
+      <c r="C11" s="84"/>
       <c r="D11" s="35"/>
       <c r="E11" s="8"/>
       <c r="F11" s="35">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>103</v>
@@ -23751,13 +23753,11 @@
       <c r="B12" s="80">
         <v>7</v>
       </c>
-      <c r="C12" s="84">
-        <v>45475</v>
-      </c>
+      <c r="C12" s="84"/>
       <c r="D12" s="35"/>
       <c r="E12" s="8"/>
       <c r="F12" s="35">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>104</v>
@@ -23776,13 +23776,11 @@
       <c r="B13" s="80">
         <v>8</v>
       </c>
-      <c r="C13" s="84">
-        <v>45475</v>
-      </c>
+      <c r="C13" s="84"/>
       <c r="D13" s="35"/>
       <c r="E13" s="8"/>
       <c r="F13" s="35">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>105</v>
@@ -23801,13 +23799,11 @@
       <c r="B14" s="80">
         <v>9</v>
       </c>
-      <c r="C14" s="84">
-        <v>45475</v>
-      </c>
+      <c r="C14" s="84"/>
       <c r="D14" s="35"/>
       <c r="E14" s="8"/>
       <c r="F14" s="35">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>106</v>
@@ -23826,13 +23822,11 @@
       <c r="B15" s="80">
         <v>10</v>
       </c>
-      <c r="C15" s="84">
-        <v>46307</v>
-      </c>
+      <c r="C15" s="84"/>
       <c r="D15" s="35"/>
       <c r="E15" s="8"/>
       <c r="F15" s="35">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>107</v>
@@ -23851,13 +23845,11 @@
       <c r="B16" s="80">
         <v>11</v>
       </c>
-      <c r="C16" s="84">
-        <v>46307</v>
-      </c>
+      <c r="C16" s="84"/>
       <c r="D16" s="35"/>
       <c r="E16" s="8"/>
       <c r="F16" s="35">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>108</v>
@@ -23876,13 +23868,11 @@
       <c r="B17" s="80">
         <v>12</v>
       </c>
-      <c r="C17" s="84">
-        <v>46307</v>
-      </c>
+      <c r="C17" s="84"/>
       <c r="D17" s="35"/>
       <c r="E17" s="8"/>
       <c r="F17" s="35">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>109</v>
